--- a/PeopleList.xlsx
+++ b/PeopleList.xlsx
@@ -5,35 +5,52 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\盛宇環球\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\抽獎v1\lottery\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EE8230E-8684-42DC-BCA4-269D055CACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C609D2E-4F26-4745-8C89-37FB0C9CE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>uid</t>
   </si>
   <si>
+    <t>original name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>introducer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,20 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,120 +443,98 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="e">
+        <f>LEFT(B2, FIND("(", B2) - 1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IFERROR(MID(B2, FIND("(", B2), LEN(B2) - FIND("(", B2) + 1), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
